--- a/FOAD_MERISE/grand_prix.xlsx
+++ b/FOAD_MERISE/grand_prix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE2EFF9-F30C-4EE3-837C-6B53D4505CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B405CA-60AA-4CAF-9F77-AC64228254AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>dictionnaire des données</t>
   </si>
@@ -105,7 +105,7 @@
     <t>entier</t>
   </si>
   <si>
-    <t>athleticsMeet</t>
+    <t>athleticMeet</t>
   </si>
   <si>
     <t>am_date</t>
@@ -136,6 +136,51 @@
   </si>
   <si>
     <t>facultatif</t>
+  </si>
+  <si>
+    <t>dépendances fonctionnelles</t>
+  </si>
+  <si>
+    <t>GRANDPRIZE</t>
+  </si>
+  <si>
+    <t>SPORTFEDERATION</t>
+  </si>
+  <si>
+    <t>ATHLETE</t>
+  </si>
+  <si>
+    <t>ATLEHTICMEET</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>max_participant</t>
   </si>
 </sst>
 </file>
@@ -167,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +249,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,11 +285,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,6 +312,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,9 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -566,8 +655,9 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
@@ -748,7 +838,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -765,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:12">
       <c r="A18" s="2"/>
       <c r="B18" s="7" t="s">
         <v>34</v>
@@ -780,7 +870,293 @@
         <v>36</v>
       </c>
     </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="C22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FOAD_MERISE/grand_prix.xlsx
+++ b/FOAD_MERISE/grand_prix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B405CA-60AA-4CAF-9F77-AC64228254AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E212E005-9669-400F-A666-3C4C0090ECE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>dictionnaire des données</t>
   </si>
@@ -87,15 +87,24 @@
     <t>nom de famille de l'athlète</t>
   </si>
   <si>
+    <t>athlete_gender</t>
+  </si>
+  <si>
+    <t>sexe de l'athlète</t>
+  </si>
+  <si>
+    <t>alphabétique(1)</t>
+  </si>
+  <si>
+    <t>obligatoire</t>
+  </si>
+  <si>
     <t>athlete_specialty</t>
   </si>
   <si>
     <t>spécialité de l'athlète</t>
   </si>
   <si>
-    <t>obligatoire</t>
-  </si>
-  <si>
     <t>athlete_score</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>specialty</t>
@@ -262,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,11 +310,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -313,15 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -329,6 +356,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,8 +701,8 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
@@ -771,61 +816,61 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
@@ -833,329 +878,388 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="C22" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="10" t="s">
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11" t="s">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="K23" s="17"/>
+      <c r="L23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="C24" s="9"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="K24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="C25" s="9"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="15"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="16"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30" s="6"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2"/>
       <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" s="6"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="19">
+        <v>1</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="K32" s="6"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="K33" s="6"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
+  <mergeCells count="6">
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOAD_MERISE/grand_prix.xlsx
+++ b/FOAD_MERISE/grand_prix.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E212E005-9669-400F-A666-3C4C0090ECE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A280BE-F49E-412B-98BA-280FB9743E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2 (suite cours)" sheetId="2" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
   <si>
     <t>dictionnaire des données</t>
   </si>
@@ -45,75 +46,282 @@
     <t xml:space="preserve">Contraintes </t>
   </si>
   <si>
+    <t>athletes</t>
+  </si>
+  <si>
+    <t>athlete_firstname</t>
+  </si>
+  <si>
+    <t>prénom de l'athlète</t>
+  </si>
+  <si>
+    <t>alphabétique(50)</t>
+  </si>
+  <si>
+    <t>identifiant</t>
+  </si>
+  <si>
+    <t>athlete_lastname</t>
+  </si>
+  <si>
+    <t>nom de famille de l'athlète</t>
+  </si>
+  <si>
+    <t>athlete_gender</t>
+  </si>
+  <si>
+    <t>sexe de l'athlète</t>
+  </si>
+  <si>
+    <t>alphabétique(1)</t>
+  </si>
+  <si>
+    <t>obligatoire</t>
+  </si>
+  <si>
+    <t>athlete_score</t>
+  </si>
+  <si>
+    <t>score de l'athlète</t>
+  </si>
+  <si>
+    <t>entier</t>
+  </si>
+  <si>
+    <t>sports_federations</t>
+  </si>
+  <si>
+    <t>sf_name</t>
+  </si>
+  <si>
+    <t>nom de la fédération sportive</t>
+  </si>
+  <si>
+    <t>sf_creation_date</t>
+  </si>
+  <si>
+    <t>date de création de la fédération sportive</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>disciplines</t>
+  </si>
+  <si>
+    <t>discipline_label</t>
+  </si>
+  <si>
+    <t>appelation de la discipline</t>
+  </si>
+  <si>
+    <t>grand_prizes</t>
+  </si>
+  <si>
+    <t>gp_year</t>
+  </si>
+  <si>
+    <t>année du grand prix</t>
+  </si>
+  <si>
+    <t>gp_nb_participants</t>
+  </si>
+  <si>
+    <t>nombre de participants</t>
+  </si>
+  <si>
+    <t>facultatif</t>
+  </si>
+  <si>
+    <t>meetings</t>
+  </si>
+  <si>
+    <t>meeting_start_date</t>
+  </si>
+  <si>
+    <t>date du début de la rencontre</t>
+  </si>
+  <si>
+    <t>meeting_location</t>
+  </si>
+  <si>
+    <t>lieu de la rencontre</t>
+  </si>
+  <si>
+    <t>meeting_end_date</t>
+  </si>
+  <si>
+    <t>date de fin de la rencontre</t>
+  </si>
+  <si>
+    <t>obligatoire, &gt; start_date</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>test_discipline</t>
+  </si>
+  <si>
+    <t>discipline de l'épreuve</t>
+  </si>
+  <si>
+    <t>test_max_participant</t>
+  </si>
+  <si>
+    <t>nombre maximum de participant</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>record_discipline</t>
+  </si>
+  <si>
+    <t>discipline du record</t>
+  </si>
+  <si>
+    <t>record_scope</t>
+  </si>
+  <si>
+    <t>portée du record (mondial, européen, national ...)</t>
+  </si>
+  <si>
+    <t>record_location</t>
+  </si>
+  <si>
+    <t>lieu du record</t>
+  </si>
+  <si>
+    <t>record_date</t>
+  </si>
+  <si>
+    <t>date du record</t>
+  </si>
+  <si>
+    <t>record_type</t>
+  </si>
+  <si>
+    <t>type de record (vitesse, hauteur, longueur...)</t>
+  </si>
+  <si>
+    <t>obliatoire</t>
+  </si>
+  <si>
+    <t>record_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur du record </t>
+  </si>
+  <si>
+    <t>alphanumérique(50)</t>
+  </si>
+  <si>
+    <t>rankings</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Règles de gestion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un athlète est enregistré dans une ou plusieurs fédérations sportives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une fédération sportive enregistre 0 ou plusieurs athlètes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un athlète pratique 1 ou plusieurs disciplines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une discipline est pratiquée par 0 ou plusieurs athlètes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un athlète s’inscrit à un ou plusieurs grand-prix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un grand prix inscrit 0 ou plusieurs athlètes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un athlète participe à 1 ou plusieurs rencontres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une rencontre fait participer 0 ou plusieurs athlètes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un athlète concourt dans 1 ou plusieurs épreuves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une épreuve fait concourir 0 ou plusieurs athlètes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un athlète peut battre 0 ou plusieurs records </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un record est battu par 0 ou plusieurs athlètes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour les entités en surbrillance ci-dessus, référencez les données dans le dictionnaire des données (nom, type, longueur contraintes). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complétez les règles de gestion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un record concerne 1 seule discipline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une discipline peut être concernée par 0 ou plusieurs records </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un grand prix est constitué de 1 ou plusieurs rencontres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une rencontre ou plusieurs rencontres constituent un grand prix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une rencontre est décomposée en 1 ou plusieurs épreuves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une ou plusieurs épreuves composent une rencontre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une épreuve concerne une discipline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une discipline concerne 0 ou plusieurs épreuves </t>
+  </si>
+  <si>
+    <t>Un athlète peut être rangé dans un classement</t>
+  </si>
+  <si>
+    <t>Un classement peut ranger un ou plusieurs athlètes</t>
+  </si>
+  <si>
+    <t>Une série inclut une ou plusieurs épreuves</t>
+  </si>
+  <si>
+    <t>Une épreuve est inclue dans 0 ou 1 série</t>
+  </si>
+  <si>
     <t>grandPrize</t>
   </si>
   <si>
-    <t>gp_year</t>
-  </si>
-  <si>
-    <t>année du grand prix</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>identifiant</t>
-  </si>
-  <si>
     <t>sportsFederation</t>
   </si>
   <si>
-    <t>sf_name</t>
-  </si>
-  <si>
-    <t>nom de la fédération sportive</t>
-  </si>
-  <si>
-    <t>alphabétique(50)</t>
-  </si>
-  <si>
     <t>athlete</t>
   </si>
   <si>
-    <t>athlete_firstname</t>
-  </si>
-  <si>
-    <t>prénom de l'athlète</t>
-  </si>
-  <si>
-    <t>athlete_lastname</t>
-  </si>
-  <si>
-    <t>nom de famille de l'athlète</t>
-  </si>
-  <si>
-    <t>athlete_gender</t>
-  </si>
-  <si>
-    <t>sexe de l'athlète</t>
-  </si>
-  <si>
-    <t>alphabétique(1)</t>
-  </si>
-  <si>
-    <t>obligatoire</t>
-  </si>
-  <si>
     <t>athlete_specialty</t>
   </si>
   <si>
     <t>spécialité de l'athlète</t>
   </si>
   <si>
-    <t>athlete_score</t>
-  </si>
-  <si>
-    <t>score de l'athlète</t>
-  </si>
-  <si>
-    <t>entier</t>
-  </si>
-  <si>
     <t>athleticMeet</t>
   </si>
   <si>
@@ -126,25 +334,7 @@
     <t>am_location</t>
   </si>
   <si>
-    <t>lieu de la rencontre</t>
-  </si>
-  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>test_discipline</t>
-  </si>
-  <si>
-    <t>discipline de l'épreuve</t>
-  </si>
-  <si>
-    <t>test_max_participant</t>
-  </si>
-  <si>
-    <t>nombre maximum de participant</t>
-  </si>
-  <si>
-    <t>facultatif</t>
   </si>
   <si>
     <t>dépendances fonctionnelles</t>
@@ -199,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +413,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +478,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -334,11 +545,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -356,6 +593,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,9 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,11 +936,794 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99C015-0B8F-4214-B276-21D2F55E406E}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="21"/>
+      <c r="B29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="21"/>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="21"/>
+      <c r="B31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="18"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,16 +1761,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -753,16 +1785,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -777,16 +1809,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -795,13 +1827,13 @@
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
@@ -810,46 +1842,46 @@
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -861,16 +1893,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
@@ -879,13 +1911,13 @@
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>10</v>
@@ -900,16 +1932,16 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>10</v>
@@ -918,79 +1950,79 @@
     <row r="19" spans="1:13">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13">
       <c r="C24" s="9" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1008,10 +2040,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4"/>
@@ -1042,10 +2074,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="4"/>
@@ -1076,10 +2108,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="5"/>
@@ -1096,7 +2128,7 @@
     <row r="31" spans="1:13">
       <c r="A31" s="2"/>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="5"/>
@@ -1113,14 +2145,14 @@
     <row r="32" spans="1:13">
       <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="19">
+      <c r="E32" s="32">
         <v>1</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1132,15 +2164,15 @@
     <row r="33" spans="1:13">
       <c r="A33" s="2"/>
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="19">
+      <c r="E33" s="32">
         <v>1</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -1151,15 +2183,15 @@
     <row r="34" spans="1:13">
       <c r="A34" s="2"/>
       <c r="B34" s="5" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="19">
+      <c r="E34" s="32">
         <v>1</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -1184,10 +2216,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="6"/>
@@ -1204,7 +2236,7 @@
     <row r="37" spans="1:13">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="6"/>
@@ -1235,10 +2267,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="10"/>
